--- a/data/SAAData.xlsx
+++ b/data/SAAData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB5B50-F4AB-4077-973F-865B1BEC7439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HistoryYield" sheetId="1" r:id="rId1"/>
     <sheet name="HistoryIndex" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000_ "/>
@@ -444,23 +443,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -468,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45443</v>
       </c>
@@ -476,7 +475,7 @@
         <v>2.5450499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45412</v>
       </c>
@@ -484,7 +483,7 @@
         <v>2.4762949999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45382</v>
       </c>
@@ -492,7 +491,7 @@
         <v>2.477438095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45351</v>
       </c>
@@ -500,7 +499,7 @@
         <v>2.5873200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45322</v>
       </c>
@@ -508,7 +507,7 @@
         <v>2.7584636363636359</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45291</v>
       </c>
@@ -516,7 +515,7 @@
         <v>2.8925857142857141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45260</v>
       </c>
@@ -524,7 +523,7 @@
         <v>2.9555909090909092</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45230</v>
       </c>
@@ -532,7 +531,7 @@
         <v>2.9991117647058818</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45199</v>
       </c>
@@ -540,7 +539,7 @@
         <v>2.971085</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45169</v>
       </c>
@@ -548,7 +547,7 @@
         <v>2.937982608695652</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45138</v>
       </c>
@@ -556,7 +555,7 @@
         <v>2.9968428571428571</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45107</v>
       </c>
@@ -564,7 +563,7 @@
         <v>3.04169</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45077</v>
       </c>
@@ -572,7 +571,7 @@
         <v>3.0762299999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45046</v>
       </c>
@@ -580,7 +579,7 @@
         <v>3.2005947368421048</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45016</v>
       </c>
@@ -588,7 +587,7 @@
         <v>3.2658608695652172</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44985</v>
       </c>
@@ -596,7 +595,7 @@
         <v>3.2888250000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44957</v>
       </c>
@@ -604,7 +603,7 @@
         <v>3.2364875</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44926</v>
       </c>
@@ -612,7 +611,7 @@
         <v>3.2445272727272729</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44895</v>
       </c>
@@ -620,7 +619,7 @@
         <v>3.169095454545455</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44865</v>
       </c>
@@ -628,7 +627,7 @@
         <v>3.1345999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44834</v>
       </c>
@@ -636,7 +635,7 @@
         <v>3.102071428571429</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44804</v>
       </c>
@@ -644,7 +643,7 @@
         <v>3.1691826086956518</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44773</v>
       </c>
@@ -652,7 +651,7 @@
         <v>3.263233333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44742</v>
       </c>
@@ -660,7 +659,7 @@
         <v>3.2420523809523809</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44712</v>
       </c>
@@ -668,7 +667,7 @@
         <v>3.2764578947368421</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44681</v>
       </c>
@@ -676,7 +675,7 @@
         <v>3.3330263157894739</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44651</v>
       </c>
@@ -684,7 +683,7 @@
         <v>3.3656999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44620</v>
       </c>
@@ -692,7 +691,7 @@
         <v>3.33890625</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44592</v>
       </c>
@@ -700,7 +699,7 @@
         <v>3.3107894736842112</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44561</v>
       </c>
@@ -708,7 +707,7 @@
         <v>3.3662000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44530</v>
       </c>
@@ -716,7 +715,7 @@
         <v>3.4277909090909091</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44500</v>
       </c>
@@ -724,7 +723,7 @@
         <v>3.5104562499999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44469</v>
       </c>
@@ -732,7 +731,7 @@
         <v>3.4087399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44439</v>
       </c>
@@ -740,7 +739,7 @@
         <v>3.4089318181818178</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44408</v>
       </c>
@@ -748,7 +747,7 @@
         <v>3.5421090909090909</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44377</v>
       </c>
@@ -756,7 +755,7 @@
         <v>3.6428857142857138</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44347</v>
       </c>
@@ -764,7 +763,7 @@
         <v>3.6162611111111111</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44316</v>
       </c>
@@ -772,7 +771,7 @@
         <v>3.6891809523809518</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44286</v>
       </c>
@@ -780,7 +779,7 @@
         <v>3.7460521739130428</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44255</v>
       </c>
@@ -788,7 +787,7 @@
         <v>3.7787066666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44227</v>
       </c>
@@ -796,7 +795,7 @@
         <v>3.732885</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44196</v>
       </c>
@@ -804,7 +803,7 @@
         <v>3.8174130434782612</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44165</v>
       </c>
@@ -812,7 +811,7 @@
         <v>3.8902380952380948</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44135</v>
       </c>
@@ -820,7 +819,7 @@
         <v>3.8859374999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44104</v>
       </c>
@@ -828,7 +827,7 @@
         <v>3.810772727272727</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44074</v>
       </c>
@@ -836,7 +835,7 @@
         <v>3.725714285714286</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44043</v>
       </c>
@@ -844,7 +843,7 @@
         <v>3.6722869565217389</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44012</v>
       </c>
@@ -852,7 +851,7 @@
         <v>3.5723250000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43982</v>
       </c>
@@ -860,7 +859,7 @@
         <v>3.478822222222222</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43951</v>
       </c>
@@ -868,7 +867,7 @@
         <v>3.2740714285714292</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43921</v>
       </c>
@@ -876,7 +875,7 @@
         <v>3.284431818181818</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43890</v>
       </c>
@@ -884,7 +883,7 @@
         <v>3.4360599999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43861</v>
       </c>
@@ -892,7 +891,7 @@
         <v>3.6716875</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43830</v>
       </c>
@@ -900,7 +899,7 @@
         <v>3.7673136363636361</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43799</v>
       </c>
@@ -908,7 +907,7 @@
         <v>3.8240285714285709</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43769</v>
       </c>
@@ -916,7 +915,7 @@
         <v>3.8145444444444441</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43738</v>
       </c>
@@ -924,7 +923,7 @@
         <v>3.6841400000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43708</v>
       </c>
@@ -932,7 +931,7 @@
         <v>3.6739909090909091</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43677</v>
       </c>
@@ -940,7 +939,7 @@
         <v>3.8206130434782608</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43646</v>
       </c>
@@ -948,7 +947,7 @@
         <v>3.8617789473684212</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43616</v>
       </c>
@@ -956,7 +955,7 @@
         <v>3.9215550000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43585</v>
       </c>
@@ -964,7 +963,7 @@
         <v>3.872380952380952</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43555</v>
       </c>
@@ -972,7 +971,7 @@
         <v>3.7214619047619051</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43524</v>
       </c>
@@ -980,7 +979,7 @@
         <v>3.7219466666666672</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43496</v>
       </c>
@@ -988,7 +987,7 @@
         <v>3.7176818181818181</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43465</v>
       </c>
@@ -996,7 +995,7 @@
         <v>3.8012600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43434</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>3.9708318181818179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43404</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>4.1279777777777777</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43373</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>4.2103894736842111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43343</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>4.0941130434782611</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43312</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>3.9853590909090908</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43281</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>4.0892749999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43251</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>4.1074590909090913</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43220</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>4.0849833333333327</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43190</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>4.2305863636363643</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43159</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>4.3176600000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43131</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>4.367881818181818</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43100</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>4.3565380952380952</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43069</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>4.3459590909090906</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43039</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>4.292111764705882</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43008</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>4.2382238095238103</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>42978</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>4.1543217391304346</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>42947</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>3.995971428571429</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>42916</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>3.9739909090909089</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>42886</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>3.9737100000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>42855</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>3.822594444444444</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>3.8181130434782609</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>42794</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>3.828872222222222</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>42766</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>3.6643722222222221</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>42735</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>3.6121090909090912</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>42704</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>3.2435818181818181</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>42674</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>3.1360312499999998</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>42643</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>3.2719849999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>42613</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>3.2721217391304349</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>42582</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>3.4608857142857139</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42551</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>3.4619049999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>42521</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>3.505066666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>42490</v>
       </c>
@@ -1252,7 +1251,7 @@
         <v>3.4138350000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>42460</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>3.4578826086956518</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42429</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>3.6440562500000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>42400</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>3.6638500000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42369</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>3.7763260869565221</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>42338</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>3.8471380952380949</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>42308</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>3.765629411764706</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42277</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>3.8283550000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42247</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>3.9497428571428572</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>42216</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>3.968165217391304</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>42185</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>4.0924714285714288</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42155</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>4.0055050000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>42124</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>4.0024952380952383</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>42094</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>3.9622909090909091</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>42063</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>3.8574199999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>42035</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>4.0068599999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>42004</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>4.1582826086956519</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>41973</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>4.1578499999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>41943</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>4.5002444444444443</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>41912</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>4.7253571428571428</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>41882</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>4.7679428571428568</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>41851</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>4.6677608695652166</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>41820</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>4.5397100000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>41790</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>4.7623550000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>41759</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>4.9915142857142856</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>41729</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>5.0487523809523811</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>41698</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>5.0164499999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>41670</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>5.0931238095238101</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>41639</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>5.0852636363636359</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>41608</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>4.9008238095238097</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>41578</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>4.4993277777777783</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>41547</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>4.4453631578947368</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>41517</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>4.3670227272727269</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>41486</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>4.231630434782609</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>41455</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>4.167794117647059</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>41425</v>
       </c>
@@ -1532,7 +1531,7 @@
         <v>4.1224454545454554</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>41394</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>4.1508611111111113</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>41364</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>4.2040714285714289</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>41333</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>4.2065933333333332</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>41305</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>4.2074550000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>41274</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>4.2112952380952384</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>41243</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>4.2050181818181818</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>41213</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>4.2069222222222216</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>41182</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>4.1688999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>41152</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>4.1434173913043484</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>41121</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>4.0960454545454548</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>41090</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>4.1079850000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>41060</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>4.1444590909090913</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>41029</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>4.1873705882352938</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>40999</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>4.1420909090909088</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>40968</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>4.1022999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>40939</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>4.057293333333333</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>40908</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>4.0760500000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>40877</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>4.1643590909090911</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>40847</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>4.2994250000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>40816</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>4.4797809523809518</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>40786</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>4.5404391304347831</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>40755</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>4.5218857142857143</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>40724</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>4.3867095238095244</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>40694</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>4.2901238095238101</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>40663</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>4.2975473684210526</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>40633</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>4.2952739130434781</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>40602</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>4.3427733333333327</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>40574</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>4.2938000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>40543</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>4.3101315789473684</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>40512</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>4.2812999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>40482</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>4.1596000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>40390</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>4.0561499999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>40359</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>4.2715666666666667</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>40329</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>4.2045500000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>40237</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>4.2511000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>40209</v>
       </c>
@@ -1820,5203 +1819,5203 @@
         <v>4.289533333333333</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="3"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="3"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="3"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="3"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="3"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="3"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="3"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="3"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="3"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="3"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="3"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="3"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="3"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="3"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="3"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="3"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="3"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="3"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="3"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="3"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="3"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="3"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="3"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="3"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="3"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="3"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="3"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="3"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="3"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="3"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="3"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="3"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="3"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="3"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="3"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="3"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="3"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="3"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="3"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="3"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="3"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="3"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="3"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="3"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="3"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="3"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="3"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="3"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="3"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="3"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="3"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="3"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="3"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="3"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="3"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="3"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="3"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="3"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="3"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="3"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="3"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="3"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="3"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="3"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="3"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="3"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="3"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="3"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="3"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="3"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="3"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="3"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="3"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="3"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="3"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="3"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="3"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="3"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="3"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="3"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="3"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="3"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="3"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="3"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="3"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="3"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="3"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="3"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="3"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="3"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="3"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="3"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="3"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="3"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="3"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="3"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="3"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="3"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="3"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="3"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="3"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="3"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="3"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="3"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="3"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="3"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="3"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="3"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="3"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="3"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="3"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="3"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="3"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="3"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="3"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="3"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="3"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="3"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="3"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="3"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="3"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="3"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="3"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="3"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="3"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="3"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="3"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="3"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="3"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="3"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="3"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="3"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="3"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="3"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="3"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="3"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="3"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="3"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="3"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="3"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="3"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="3"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="3"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="3"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="3"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="3"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="3"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="3"/>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="3"/>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="3"/>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="3"/>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="3"/>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="3"/>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="3"/>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="3"/>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="3"/>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="3"/>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="3"/>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="3"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="3"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="3"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="3"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="3"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="3"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="3"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="3"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="3"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="3"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="3"/>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="3"/>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="3"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="3"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="3"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="3"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="3"/>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="3"/>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="3"/>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="3"/>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="3"/>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="3"/>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="3"/>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="3"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="3"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="3"/>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="3"/>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="3"/>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="3"/>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="3"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="3"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="3"/>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="3"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="3"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="3"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="3"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="3"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="3"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="3"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="3"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="3"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="3"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="3"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="3"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="3"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="3"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="3"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="3"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="3"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="3"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="3"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="3"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="3"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="3"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="3"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="3"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="3"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="3"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="3"/>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="3"/>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="3"/>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="3"/>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="3"/>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="3"/>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="3"/>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="3"/>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="3"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="3"/>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="3"/>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="3"/>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="3"/>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="3"/>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="3"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="3"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="3"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="3"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="3"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="3"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="3"/>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="3"/>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="3"/>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="3"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="3"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="3"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="3"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="3"/>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="3"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="3"/>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="3"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="3"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="3"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="3"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="3"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="3"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="3"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="3"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="3"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="3"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="3"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="3"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="3"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="3"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="3"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="3"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="3"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="3"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="3"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="3"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="3"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="3"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="3"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="3"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="3"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="3"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="3"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="3"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="3"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="3"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="3"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="3"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="3"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="3"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="3"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="3"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="3"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="3"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="3"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="3"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="3"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="3"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="3"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="3"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="3"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="3"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="3"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="3"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="3"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="3"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="3"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="3"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="3"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="3"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="3"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="3"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="3"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="3"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="3"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="3"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="3"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="3"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="3"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="3"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="3"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="3"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="3"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="3"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="3"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="3"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="3"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="3"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="3"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="3"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="3"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="3"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="3"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="3"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="3"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="3"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="3"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="3"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="3"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="3"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="3"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="3"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="3"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="3"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="3"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="3"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="3"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="3"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="3"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="3"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="3"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="3"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="3"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="3"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="3"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="3"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="3"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="3"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="3"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="3"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="3"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="3"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="3"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="3"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="3"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="3"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="3"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="3"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="3"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="3"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="3"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="3"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="3"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="3"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="3"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="3"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="3"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="3"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="3"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="3"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="3"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="3"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="3"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="3"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="3"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="3"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="3"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="3"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="3"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="3"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="3"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="3"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="3"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="3"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="3"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="3"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="3"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="3"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="3"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="3"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="3"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="3"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="3"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="3"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="3"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="3"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="3"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="3"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="3"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="3"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="3"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="3"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="3"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="3"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="3"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="3"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="3"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="3"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="3"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="3"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="3"/>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="3"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="3"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="3"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="3"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="3"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="3"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="3"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="3"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="3"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="3"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="3"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="3"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="3"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="3"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="3"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="3"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="3"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="3"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="3"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="3"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="3"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="3"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="3"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="3"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="3"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="3"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="3"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="3"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="3"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="3"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="3"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="3"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="3"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="3"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="3"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="3"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="3"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="3"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="3"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="3"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="3"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="3"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="3"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="3"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="3"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="3"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="3"/>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="3"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="3"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="3"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="3"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="3"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="3"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="3"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="3"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="3"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="3"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="3"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="3"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="3"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="3"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="3"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="3"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="3"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="3"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="3"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="3"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="3"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="3"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="3"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="3"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="3"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="3"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="3"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="3"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="3"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="3"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="3"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="3"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="3"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="3"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="3"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="3"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="3"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="3"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="3"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="3"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="3"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="3"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="3"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="3"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="3"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="3"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="3"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="3"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="3"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="3"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="3"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="3"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="3"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="3"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="3"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="3"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="3"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="3"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="3"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="3"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="3"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="3"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="3"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="3"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="3"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="3"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="3"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="3"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="3"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="3"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="3"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="3"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="3"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="3"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="3"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="3"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="3"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="3"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="3"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="3"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="3"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="3"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="3"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="3"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="3"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="3"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="3"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="3"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="3"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="3"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="3"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="3"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="3"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="3"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="3"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="3"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="3"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="3"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="3"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="3"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="3"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="3"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="3"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="3"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="3"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="3"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="3"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="3"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="3"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="3"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="3"/>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="3"/>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="3"/>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="3"/>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="3"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="3"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="3"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="3"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="3"/>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="3"/>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="3"/>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="3"/>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="3"/>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="3"/>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="3"/>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="3"/>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="3"/>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="3"/>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="3"/>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="3"/>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="3"/>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="3"/>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="3"/>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="3"/>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="3"/>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="3"/>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="3"/>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="3"/>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="3"/>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="3"/>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="3"/>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="3"/>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="3"/>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="3"/>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="3"/>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="3"/>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="3"/>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="3"/>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="3"/>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="3"/>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="3"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="3"/>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="3"/>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="3"/>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="3"/>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="3"/>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="3"/>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="3"/>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="3"/>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="3"/>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="3"/>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="3"/>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="3"/>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="3"/>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="3"/>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="3"/>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="3"/>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="3"/>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="3"/>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="3"/>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="3"/>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="3"/>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="3"/>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="3"/>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="3"/>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="3"/>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="3"/>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="3"/>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="3"/>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="3"/>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="3"/>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="3"/>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="3"/>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="3"/>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="3"/>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="3"/>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="3"/>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="3"/>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="3"/>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="3"/>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="3"/>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="3"/>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="3"/>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="3"/>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="3"/>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="3"/>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="3"/>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="3"/>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="3"/>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="3"/>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="3"/>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="3"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="3"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="3"/>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="3"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="3"/>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="3"/>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="3"/>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="3"/>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="3"/>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="3"/>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="3"/>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="3"/>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="3"/>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="3"/>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="3"/>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="3"/>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="3"/>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="3"/>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="3"/>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="3"/>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="3"/>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="3"/>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="3"/>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="3"/>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="3"/>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="3"/>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="3"/>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="3"/>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="3"/>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" s="4"/>
       <c r="B1001" s="3"/>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" s="4"/>
       <c r="B1002" s="3"/>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" s="4"/>
       <c r="B1003" s="3"/>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" s="4"/>
       <c r="B1004" s="3"/>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" s="4"/>
       <c r="B1005" s="3"/>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" s="4"/>
       <c r="B1006" s="3"/>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" s="4"/>
       <c r="B1007" s="3"/>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" s="4"/>
       <c r="B1008" s="3"/>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" s="4"/>
       <c r="B1009" s="3"/>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" s="4"/>
       <c r="B1010" s="3"/>
     </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" s="4"/>
       <c r="B1011" s="3"/>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" s="4"/>
       <c r="B1012" s="3"/>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" s="4"/>
       <c r="B1013" s="3"/>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" s="4"/>
       <c r="B1014" s="3"/>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" s="4"/>
       <c r="B1015" s="3"/>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" s="4"/>
       <c r="B1016" s="3"/>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" s="4"/>
       <c r="B1017" s="3"/>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" s="4"/>
       <c r="B1018" s="3"/>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" s="4"/>
       <c r="B1019" s="3"/>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" s="4"/>
       <c r="B1020" s="3"/>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" s="4"/>
       <c r="B1021" s="3"/>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" s="4"/>
       <c r="B1022" s="3"/>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" s="4"/>
       <c r="B1023" s="3"/>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" s="4"/>
       <c r="B1024" s="3"/>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" s="4"/>
       <c r="B1025" s="3"/>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" s="4"/>
       <c r="B1026" s="3"/>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" s="4"/>
       <c r="B1027" s="3"/>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" s="4"/>
       <c r="B1028" s="3"/>
     </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" s="4"/>
       <c r="B1029" s="3"/>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" s="4"/>
       <c r="B1030" s="3"/>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" s="4"/>
       <c r="B1031" s="3"/>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" s="4"/>
       <c r="B1032" s="3"/>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" s="4"/>
       <c r="B1033" s="3"/>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" s="4"/>
       <c r="B1034" s="3"/>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" s="4"/>
       <c r="B1035" s="3"/>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" s="4"/>
       <c r="B1036" s="3"/>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" s="4"/>
       <c r="B1037" s="3"/>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" s="4"/>
       <c r="B1038" s="3"/>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" s="4"/>
       <c r="B1039" s="3"/>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" s="4"/>
       <c r="B1040" s="3"/>
     </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" s="4"/>
       <c r="B1041" s="3"/>
     </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" s="4"/>
       <c r="B1042" s="3"/>
     </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" s="4"/>
       <c r="B1043" s="3"/>
     </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" s="4"/>
       <c r="B1044" s="3"/>
     </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" s="4"/>
       <c r="B1045" s="3"/>
     </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" s="4"/>
       <c r="B1046" s="3"/>
     </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" s="4"/>
       <c r="B1047" s="3"/>
     </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" s="4"/>
       <c r="B1048" s="3"/>
     </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" s="4"/>
       <c r="B1049" s="3"/>
     </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" s="4"/>
       <c r="B1050" s="3"/>
     </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" s="4"/>
       <c r="B1051" s="3"/>
     </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" s="4"/>
       <c r="B1052" s="3"/>
     </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" s="4"/>
       <c r="B1053" s="3"/>
     </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" s="4"/>
       <c r="B1054" s="3"/>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" s="4"/>
       <c r="B1055" s="3"/>
     </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" s="4"/>
       <c r="B1056" s="3"/>
     </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" s="4"/>
       <c r="B1057" s="3"/>
     </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="4"/>
       <c r="B1058" s="3"/>
     </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" s="4"/>
       <c r="B1059" s="3"/>
     </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" s="4"/>
       <c r="B1060" s="3"/>
     </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" s="4"/>
       <c r="B1061" s="3"/>
     </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" s="4"/>
       <c r="B1062" s="3"/>
     </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" s="4"/>
       <c r="B1063" s="3"/>
     </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" s="4"/>
       <c r="B1064" s="3"/>
     </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" s="4"/>
       <c r="B1065" s="3"/>
     </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" s="4"/>
       <c r="B1066" s="3"/>
     </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" s="4"/>
       <c r="B1067" s="3"/>
     </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" s="4"/>
       <c r="B1068" s="3"/>
     </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" s="4"/>
       <c r="B1069" s="3"/>
     </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" s="4"/>
       <c r="B1070" s="3"/>
     </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" s="4"/>
       <c r="B1071" s="3"/>
     </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" s="4"/>
       <c r="B1072" s="3"/>
     </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" s="4"/>
       <c r="B1073" s="3"/>
     </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" s="4"/>
       <c r="B1074" s="3"/>
     </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075" s="4"/>
       <c r="B1075" s="3"/>
     </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" s="4"/>
       <c r="B1076" s="3"/>
     </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" s="4"/>
       <c r="B1077" s="3"/>
     </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" s="4"/>
       <c r="B1078" s="3"/>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" s="4"/>
       <c r="B1079" s="3"/>
     </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" s="4"/>
       <c r="B1080" s="3"/>
     </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" s="4"/>
       <c r="B1081" s="3"/>
     </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" s="4"/>
       <c r="B1082" s="3"/>
     </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" s="4"/>
       <c r="B1083" s="3"/>
     </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" s="4"/>
       <c r="B1084" s="3"/>
     </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" s="4"/>
       <c r="B1085" s="3"/>
     </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" s="4"/>
       <c r="B1086" s="3"/>
     </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" s="4"/>
       <c r="B1087" s="3"/>
     </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" s="4"/>
       <c r="B1088" s="3"/>
     </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" s="4"/>
       <c r="B1089" s="3"/>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" s="4"/>
       <c r="B1090" s="3"/>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" s="4"/>
       <c r="B1091" s="3"/>
     </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" s="4"/>
       <c r="B1092" s="3"/>
     </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" s="4"/>
       <c r="B1093" s="3"/>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" s="4"/>
       <c r="B1094" s="3"/>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" s="4"/>
       <c r="B1095" s="3"/>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" s="4"/>
       <c r="B1096" s="3"/>
     </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" s="4"/>
       <c r="B1097" s="3"/>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" s="4"/>
       <c r="B1098" s="3"/>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" s="4"/>
       <c r="B1099" s="3"/>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" s="4"/>
       <c r="B1100" s="3"/>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" s="4"/>
       <c r="B1101" s="3"/>
     </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" s="4"/>
       <c r="B1102" s="3"/>
     </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" s="4"/>
       <c r="B1103" s="3"/>
     </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" s="4"/>
       <c r="B1104" s="3"/>
     </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" s="4"/>
       <c r="B1105" s="3"/>
     </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" s="4"/>
       <c r="B1106" s="3"/>
     </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" s="4"/>
       <c r="B1107" s="3"/>
     </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" s="4"/>
       <c r="B1108" s="3"/>
     </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" s="4"/>
       <c r="B1109" s="3"/>
     </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" s="4"/>
       <c r="B1110" s="3"/>
     </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111" s="4"/>
       <c r="B1111" s="3"/>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" s="4"/>
       <c r="B1112" s="3"/>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" s="4"/>
       <c r="B1113" s="3"/>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" s="4"/>
       <c r="B1114" s="3"/>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" s="4"/>
       <c r="B1115" s="3"/>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" s="4"/>
       <c r="B1116" s="3"/>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" s="4"/>
       <c r="B1117" s="3"/>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" s="4"/>
       <c r="B1118" s="3"/>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" s="4"/>
       <c r="B1119" s="3"/>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" s="4"/>
       <c r="B1120" s="3"/>
     </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" s="4"/>
       <c r="B1121" s="3"/>
     </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" s="4"/>
       <c r="B1122" s="3"/>
     </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" s="4"/>
       <c r="B1123" s="3"/>
     </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" s="4"/>
       <c r="B1124" s="3"/>
     </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" s="4"/>
       <c r="B1125" s="3"/>
     </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" s="4"/>
       <c r="B1126" s="3"/>
     </row>
-    <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" s="4"/>
       <c r="B1127" s="3"/>
     </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" s="4"/>
       <c r="B1128" s="3"/>
     </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" s="4"/>
       <c r="B1129" s="3"/>
     </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" s="4"/>
       <c r="B1130" s="3"/>
     </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" s="4"/>
       <c r="B1131" s="3"/>
     </row>
-    <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" s="4"/>
       <c r="B1132" s="3"/>
     </row>
-    <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" s="4"/>
       <c r="B1133" s="3"/>
     </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" s="4"/>
       <c r="B1134" s="3"/>
     </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" s="4"/>
       <c r="B1135" s="3"/>
     </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" s="4"/>
       <c r="B1136" s="3"/>
     </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" s="4"/>
       <c r="B1137" s="3"/>
     </row>
-    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="4"/>
       <c r="B1138" s="3"/>
     </row>
-    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" s="4"/>
       <c r="B1139" s="3"/>
     </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" s="4"/>
       <c r="B1140" s="3"/>
     </row>
-    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" s="4"/>
       <c r="B1141" s="3"/>
     </row>
-    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" s="4"/>
       <c r="B1142" s="3"/>
     </row>
-    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" s="4"/>
       <c r="B1143" s="3"/>
     </row>
-    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" s="4"/>
       <c r="B1144" s="3"/>
     </row>
-    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" s="4"/>
       <c r="B1145" s="3"/>
     </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" s="4"/>
       <c r="B1146" s="3"/>
     </row>
-    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" s="4"/>
       <c r="B1147" s="3"/>
     </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" s="4"/>
       <c r="B1148" s="3"/>
     </row>
-    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" s="4"/>
       <c r="B1149" s="3"/>
     </row>
-    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" s="4"/>
       <c r="B1150" s="3"/>
     </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" s="4"/>
       <c r="B1151" s="3"/>
     </row>
-    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" s="4"/>
       <c r="B1152" s="3"/>
     </row>
-    <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" s="4"/>
       <c r="B1153" s="3"/>
     </row>
-    <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" s="4"/>
       <c r="B1154" s="3"/>
     </row>
-    <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" s="4"/>
       <c r="B1155" s="3"/>
     </row>
-    <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" s="4"/>
       <c r="B1156" s="3"/>
     </row>
-    <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" s="4"/>
       <c r="B1157" s="3"/>
     </row>
-    <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" s="4"/>
       <c r="B1158" s="3"/>
     </row>
-    <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" s="4"/>
       <c r="B1159" s="3"/>
     </row>
-    <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" s="4"/>
       <c r="B1160" s="3"/>
     </row>
-    <row r="1161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" s="4"/>
       <c r="B1161" s="3"/>
     </row>
-    <row r="1162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" s="4"/>
       <c r="B1162" s="3"/>
     </row>
-    <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" s="4"/>
       <c r="B1163" s="3"/>
     </row>
-    <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" s="4"/>
       <c r="B1164" s="3"/>
     </row>
-    <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" s="4"/>
       <c r="B1165" s="3"/>
     </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" s="4"/>
       <c r="B1166" s="3"/>
     </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" s="4"/>
       <c r="B1167" s="3"/>
     </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" s="4"/>
       <c r="B1168" s="3"/>
     </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" s="4"/>
       <c r="B1169" s="3"/>
     </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" s="4"/>
       <c r="B1170" s="3"/>
     </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" s="4"/>
       <c r="B1171" s="3"/>
     </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" s="4"/>
       <c r="B1172" s="3"/>
     </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" s="4"/>
       <c r="B1173" s="3"/>
     </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" s="4"/>
       <c r="B1174" s="3"/>
     </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" s="4"/>
       <c r="B1175" s="3"/>
     </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" s="4"/>
       <c r="B1176" s="3"/>
     </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" s="4"/>
       <c r="B1177" s="3"/>
     </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" s="4"/>
       <c r="B1178" s="3"/>
     </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" s="4"/>
       <c r="B1179" s="3"/>
     </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" s="4"/>
       <c r="B1180" s="3"/>
     </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" s="4"/>
       <c r="B1181" s="3"/>
     </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" s="4"/>
       <c r="B1182" s="3"/>
     </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" s="4"/>
       <c r="B1183" s="3"/>
     </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" s="4"/>
       <c r="B1184" s="3"/>
     </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" s="4"/>
       <c r="B1185" s="3"/>
     </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" s="4"/>
       <c r="B1186" s="3"/>
     </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" s="4"/>
       <c r="B1187" s="3"/>
     </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" s="4"/>
       <c r="B1188" s="3"/>
     </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" s="4"/>
       <c r="B1189" s="3"/>
     </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" s="4"/>
       <c r="B1190" s="3"/>
     </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" s="4"/>
       <c r="B1191" s="3"/>
     </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" s="4"/>
       <c r="B1192" s="3"/>
     </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" s="4"/>
       <c r="B1193" s="3"/>
     </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" s="4"/>
       <c r="B1194" s="3"/>
     </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" s="4"/>
       <c r="B1195" s="3"/>
     </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" s="4"/>
       <c r="B1196" s="3"/>
     </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" s="4"/>
       <c r="B1197" s="3"/>
     </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" s="4"/>
       <c r="B1198" s="3"/>
     </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" s="4"/>
       <c r="B1199" s="3"/>
     </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" s="4"/>
       <c r="B1200" s="3"/>
     </row>
-    <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" s="4"/>
       <c r="B1201" s="3"/>
     </row>
-    <row r="1202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" s="4"/>
       <c r="B1202" s="3"/>
     </row>
-    <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" s="4"/>
       <c r="B1203" s="3"/>
     </row>
-    <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" s="4"/>
       <c r="B1204" s="3"/>
     </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" s="4"/>
       <c r="B1205" s="3"/>
     </row>
-    <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" s="4"/>
       <c r="B1206" s="3"/>
     </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" s="4"/>
       <c r="B1207" s="3"/>
     </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" s="4"/>
       <c r="B1208" s="3"/>
     </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" s="4"/>
       <c r="B1209" s="3"/>
     </row>
-    <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" s="4"/>
       <c r="B1210" s="3"/>
     </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" s="4"/>
       <c r="B1211" s="3"/>
     </row>
-    <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" s="4"/>
       <c r="B1212" s="3"/>
     </row>
-    <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" s="4"/>
       <c r="B1213" s="3"/>
     </row>
-    <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" s="4"/>
       <c r="B1214" s="3"/>
     </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" s="4"/>
       <c r="B1215" s="3"/>
     </row>
-    <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="4"/>
       <c r="B1216" s="3"/>
     </row>
-    <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" s="4"/>
       <c r="B1217" s="3"/>
     </row>
-    <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" s="4"/>
       <c r="B1218" s="3"/>
     </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" s="4"/>
       <c r="B1219" s="3"/>
     </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" s="4"/>
       <c r="B1220" s="3"/>
     </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" s="4"/>
       <c r="B1221" s="3"/>
     </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" s="4"/>
       <c r="B1222" s="3"/>
     </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" s="4"/>
       <c r="B1223" s="3"/>
     </row>
-    <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" s="4"/>
       <c r="B1224" s="3"/>
     </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" s="4"/>
       <c r="B1225" s="3"/>
     </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="4"/>
       <c r="B1226" s="3"/>
     </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" s="4"/>
       <c r="B1227" s="3"/>
     </row>
-    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" s="4"/>
       <c r="B1228" s="3"/>
     </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" s="4"/>
       <c r="B1229" s="3"/>
     </row>
-    <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" s="4"/>
       <c r="B1230" s="3"/>
     </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" s="4"/>
       <c r="B1231" s="3"/>
     </row>
-    <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" s="4"/>
       <c r="B1232" s="3"/>
     </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" s="4"/>
       <c r="B1233" s="3"/>
     </row>
-    <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" s="4"/>
       <c r="B1234" s="3"/>
     </row>
-    <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" s="4"/>
       <c r="B1235" s="3"/>
     </row>
-    <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" s="4"/>
       <c r="B1236" s="3"/>
     </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" s="4"/>
       <c r="B1237" s="3"/>
     </row>
-    <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" s="4"/>
       <c r="B1238" s="3"/>
     </row>
-    <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" s="4"/>
       <c r="B1239" s="3"/>
     </row>
-    <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" s="4"/>
       <c r="B1240" s="3"/>
     </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" s="4"/>
       <c r="B1241" s="3"/>
     </row>
-    <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" s="4"/>
       <c r="B1242" s="3"/>
     </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" s="4"/>
       <c r="B1243" s="3"/>
     </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" s="4"/>
       <c r="B1244" s="3"/>
     </row>
-    <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" s="4"/>
       <c r="B1245" s="3"/>
     </row>
-    <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" s="4"/>
       <c r="B1246" s="3"/>
     </row>
-    <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" s="4"/>
       <c r="B1247" s="3"/>
     </row>
-    <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" s="4"/>
       <c r="B1248" s="3"/>
     </row>
-    <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" s="4"/>
       <c r="B1249" s="3"/>
     </row>
-    <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" s="4"/>
       <c r="B1250" s="3"/>
     </row>
-    <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" s="4"/>
       <c r="B1251" s="3"/>
     </row>
-    <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" s="4"/>
       <c r="B1252" s="3"/>
     </row>
-    <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" s="4"/>
       <c r="B1253" s="3"/>
     </row>
-    <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" s="4"/>
       <c r="B1254" s="3"/>
     </row>
-    <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" s="4"/>
       <c r="B1255" s="3"/>
     </row>
-    <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" s="4"/>
       <c r="B1256" s="3"/>
     </row>
-    <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" s="4"/>
       <c r="B1257" s="3"/>
     </row>
-    <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" s="4"/>
       <c r="B1258" s="3"/>
     </row>
-    <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" s="4"/>
       <c r="B1259" s="3"/>
     </row>
-    <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" s="4"/>
       <c r="B1260" s="3"/>
     </row>
-    <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" s="4"/>
       <c r="B1261" s="3"/>
     </row>
-    <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" s="4"/>
       <c r="B1262" s="3"/>
     </row>
-    <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" s="4"/>
       <c r="B1263" s="3"/>
     </row>
-    <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" s="4"/>
       <c r="B1264" s="3"/>
     </row>
-    <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" s="4"/>
       <c r="B1265" s="3"/>
     </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" s="4"/>
       <c r="B1266" s="3"/>
     </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" s="4"/>
       <c r="B1267" s="3"/>
     </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" s="4"/>
       <c r="B1268" s="3"/>
     </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" s="4"/>
       <c r="B1269" s="3"/>
     </row>
-    <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" s="4"/>
       <c r="B1270" s="3"/>
     </row>
-    <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" s="4"/>
       <c r="B1271" s="3"/>
     </row>
-    <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" s="4"/>
       <c r="B1272" s="3"/>
     </row>
-    <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" s="4"/>
       <c r="B1273" s="3"/>
     </row>
-    <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" s="4"/>
       <c r="B1274" s="3"/>
     </row>
-    <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" s="4"/>
       <c r="B1275" s="3"/>
     </row>
-    <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" s="4"/>
       <c r="B1276" s="3"/>
     </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" s="4"/>
       <c r="B1277" s="3"/>
     </row>
-    <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" s="4"/>
       <c r="B1278" s="3"/>
     </row>
-    <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279" s="4"/>
       <c r="B1279" s="3"/>
     </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" s="4"/>
       <c r="B1280" s="3"/>
     </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" s="4"/>
       <c r="B1281" s="3"/>
     </row>
-    <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" s="4"/>
       <c r="B1282" s="3"/>
     </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" s="4"/>
       <c r="B1283" s="3"/>
     </row>
-    <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" s="4"/>
       <c r="B1284" s="3"/>
     </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" s="4"/>
       <c r="B1285" s="3"/>
     </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" s="4"/>
       <c r="B1286" s="3"/>
     </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" s="4"/>
       <c r="B1287" s="3"/>
     </row>
-    <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" s="4"/>
       <c r="B1288" s="3"/>
     </row>
-    <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" s="4"/>
       <c r="B1289" s="3"/>
     </row>
-    <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" s="4"/>
       <c r="B1290" s="3"/>
     </row>
-    <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" s="4"/>
       <c r="B1291" s="3"/>
     </row>
-    <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" s="4"/>
       <c r="B1292" s="3"/>
     </row>
-    <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" s="4"/>
       <c r="B1293" s="3"/>
     </row>
-    <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="4"/>
       <c r="B1294" s="3"/>
     </row>
-    <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" s="4"/>
       <c r="B1295" s="3"/>
     </row>
-    <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" s="4"/>
       <c r="B1296" s="3"/>
     </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" s="4"/>
       <c r="B1297" s="3"/>
     </row>
-    <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" s="4"/>
       <c r="B1298" s="3"/>
     </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" s="4"/>
       <c r="B1299" s="3"/>
     </row>
-    <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" s="4"/>
       <c r="B1300" s="3"/>
     </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" s="4"/>
       <c r="B1301" s="3"/>
     </row>
-    <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" s="4"/>
       <c r="B1302" s="3"/>
     </row>
-    <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" s="4"/>
       <c r="B1303" s="3"/>
     </row>
-    <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" s="4"/>
       <c r="B1304" s="3"/>
     </row>
-    <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" s="4"/>
       <c r="B1305" s="3"/>
     </row>
-    <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" s="4"/>
       <c r="B1306" s="3"/>
     </row>
-    <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" s="4"/>
       <c r="B1307" s="3"/>
     </row>
-    <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" s="4"/>
       <c r="B1308" s="3"/>
     </row>
-    <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" s="4"/>
       <c r="B1309" s="3"/>
     </row>
-    <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" s="4"/>
       <c r="B1310" s="3"/>
     </row>
-    <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" s="4"/>
       <c r="B1311" s="3"/>
     </row>
-    <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" s="4"/>
       <c r="B1312" s="3"/>
     </row>
-    <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" s="4"/>
       <c r="B1313" s="3"/>
     </row>
-    <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" s="4"/>
       <c r="B1314" s="3"/>
     </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" s="4"/>
       <c r="B1315" s="3"/>
     </row>
-    <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" s="4"/>
       <c r="B1316" s="3"/>
     </row>
-    <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" s="4"/>
       <c r="B1317" s="3"/>
     </row>
-    <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" s="4"/>
       <c r="B1318" s="3"/>
     </row>
-    <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" s="4"/>
       <c r="B1319" s="3"/>
     </row>
-    <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" s="4"/>
       <c r="B1320" s="3"/>
     </row>
-    <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" s="4"/>
       <c r="B1321" s="3"/>
     </row>
-    <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" s="4"/>
       <c r="B1322" s="3"/>
     </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" s="4"/>
       <c r="B1323" s="3"/>
     </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" s="4"/>
       <c r="B1324" s="3"/>
     </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" s="4"/>
       <c r="B1325" s="3"/>
     </row>
-    <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" s="4"/>
       <c r="B1326" s="3"/>
     </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" s="4"/>
       <c r="B1327" s="3"/>
     </row>
-    <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" s="4"/>
       <c r="B1328" s="3"/>
     </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" s="4"/>
       <c r="B1329" s="3"/>
     </row>
-    <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" s="4"/>
       <c r="B1330" s="3"/>
     </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" s="4"/>
       <c r="B1331" s="3"/>
     </row>
-    <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" s="4"/>
       <c r="B1332" s="3"/>
     </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" s="4"/>
       <c r="B1333" s="3"/>
     </row>
-    <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" s="4"/>
       <c r="B1334" s="3"/>
     </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" s="4"/>
       <c r="B1335" s="3"/>
     </row>
-    <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" s="4"/>
       <c r="B1336" s="3"/>
     </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" s="4"/>
       <c r="B1337" s="3"/>
     </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" s="4"/>
       <c r="B1338" s="3"/>
     </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" s="4"/>
       <c r="B1339" s="3"/>
     </row>
-    <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" s="4"/>
       <c r="B1340" s="3"/>
     </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" s="4"/>
       <c r="B1341" s="3"/>
     </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" s="4"/>
       <c r="B1342" s="3"/>
     </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" s="4"/>
       <c r="B1343" s="3"/>
     </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" s="4"/>
       <c r="B1344" s="3"/>
     </row>
-    <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" s="4"/>
       <c r="B1345" s="3"/>
     </row>
-    <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" s="4"/>
       <c r="B1346" s="3"/>
     </row>
-    <row r="1347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" s="4"/>
       <c r="B1347" s="3"/>
     </row>
-    <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" s="4"/>
       <c r="B1348" s="3"/>
     </row>
-    <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" s="4"/>
       <c r="B1349" s="3"/>
     </row>
-    <row r="1350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" s="4"/>
       <c r="B1350" s="3"/>
     </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" s="4"/>
       <c r="B1351" s="3"/>
     </row>
-    <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" s="4"/>
       <c r="B1352" s="3"/>
     </row>
-    <row r="1353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" s="4"/>
       <c r="B1353" s="3"/>
     </row>
-    <row r="1354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" s="4"/>
       <c r="B1354" s="3"/>
     </row>
-    <row r="1355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" s="4"/>
       <c r="B1355" s="3"/>
     </row>
-    <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" s="4"/>
       <c r="B1356" s="3"/>
     </row>
-    <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" s="4"/>
       <c r="B1357" s="3"/>
     </row>
-    <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" s="4"/>
       <c r="B1358" s="3"/>
     </row>
-    <row r="1359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" s="4"/>
       <c r="B1359" s="3"/>
     </row>
-    <row r="1360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" s="4"/>
       <c r="B1360" s="3"/>
     </row>
-    <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" s="4"/>
       <c r="B1361" s="3"/>
     </row>
-    <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" s="4"/>
       <c r="B1362" s="3"/>
     </row>
-    <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" s="4"/>
       <c r="B1363" s="3"/>
     </row>
-    <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" s="4"/>
       <c r="B1364" s="3"/>
     </row>
-    <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" s="4"/>
       <c r="B1365" s="3"/>
     </row>
-    <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" s="4"/>
       <c r="B1366" s="3"/>
     </row>
-    <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" s="4"/>
       <c r="B1367" s="3"/>
     </row>
-    <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" s="4"/>
       <c r="B1368" s="3"/>
     </row>
-    <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" s="4"/>
       <c r="B1369" s="3"/>
     </row>
-    <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="4"/>
       <c r="B1370" s="3"/>
     </row>
-    <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" s="4"/>
       <c r="B1371" s="3"/>
     </row>
-    <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" s="4"/>
       <c r="B1372" s="3"/>
     </row>
-    <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" s="4"/>
       <c r="B1373" s="3"/>
     </row>
-    <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" s="4"/>
       <c r="B1374" s="3"/>
     </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" s="4"/>
       <c r="B1375" s="3"/>
     </row>
-    <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" s="4"/>
       <c r="B1376" s="3"/>
     </row>
-    <row r="1377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" s="4"/>
       <c r="B1377" s="3"/>
     </row>
-    <row r="1378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" s="4"/>
       <c r="B1378" s="3"/>
     </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" s="4"/>
       <c r="B1379" s="3"/>
     </row>
-    <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" s="4"/>
       <c r="B1380" s="3"/>
     </row>
-    <row r="1381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" s="4"/>
       <c r="B1381" s="3"/>
     </row>
-    <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" s="4"/>
       <c r="B1382" s="3"/>
     </row>
-    <row r="1383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" s="4"/>
       <c r="B1383" s="3"/>
     </row>
-    <row r="1384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" s="4"/>
       <c r="B1384" s="3"/>
     </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" s="4"/>
       <c r="B1385" s="3"/>
     </row>
-    <row r="1386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" s="4"/>
       <c r="B1386" s="3"/>
     </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" s="4"/>
       <c r="B1387" s="3"/>
     </row>
-    <row r="1388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" s="4"/>
       <c r="B1388" s="3"/>
     </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" s="4"/>
       <c r="B1389" s="3"/>
     </row>
-    <row r="1390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" s="4"/>
       <c r="B1390" s="3"/>
     </row>
-    <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" s="4"/>
       <c r="B1391" s="3"/>
     </row>
-    <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" s="4"/>
       <c r="B1392" s="3"/>
     </row>
-    <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" s="4"/>
       <c r="B1393" s="3"/>
     </row>
-    <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" s="4"/>
       <c r="B1394" s="3"/>
     </row>
-    <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" s="4"/>
       <c r="B1395" s="3"/>
     </row>
-    <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" s="4"/>
       <c r="B1396" s="3"/>
     </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" s="4"/>
       <c r="B1397" s="3"/>
     </row>
-    <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" s="4"/>
       <c r="B1398" s="3"/>
     </row>
-    <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" s="4"/>
       <c r="B1399" s="3"/>
     </row>
-    <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" s="4"/>
       <c r="B1400" s="3"/>
     </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" s="4"/>
       <c r="B1401" s="3"/>
     </row>
-    <row r="1402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" s="4"/>
       <c r="B1402" s="3"/>
     </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" s="4"/>
       <c r="B1403" s="3"/>
     </row>
-    <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" s="4"/>
       <c r="B1404" s="3"/>
     </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" s="4"/>
       <c r="B1405" s="3"/>
     </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" s="4"/>
       <c r="B1406" s="3"/>
     </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" s="4"/>
       <c r="B1407" s="3"/>
     </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" s="4"/>
       <c r="B1408" s="3"/>
     </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" s="4"/>
       <c r="B1409" s="3"/>
     </row>
-    <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" s="4"/>
       <c r="B1410" s="3"/>
     </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" s="4"/>
       <c r="B1411" s="3"/>
     </row>
-    <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" s="4"/>
       <c r="B1412" s="3"/>
     </row>
-    <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" s="4"/>
       <c r="B1413" s="3"/>
     </row>
-    <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" s="4"/>
       <c r="B1414" s="3"/>
     </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" s="4"/>
       <c r="B1415" s="3"/>
     </row>
-    <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" s="4"/>
       <c r="B1416" s="3"/>
     </row>
-    <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" s="4"/>
       <c r="B1417" s="3"/>
     </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" s="4"/>
       <c r="B1418" s="3"/>
     </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" s="4"/>
       <c r="B1419" s="3"/>
     </row>
-    <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" s="4"/>
       <c r="B1420" s="3"/>
     </row>
-    <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" s="4"/>
       <c r="B1421" s="3"/>
     </row>
-    <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" s="4"/>
       <c r="B1422" s="3"/>
     </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" s="4"/>
       <c r="B1423" s="3"/>
     </row>
-    <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" s="4"/>
       <c r="B1424" s="3"/>
     </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" s="4"/>
       <c r="B1425" s="3"/>
     </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" s="4"/>
       <c r="B1426" s="3"/>
     </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" s="4"/>
       <c r="B1427" s="3"/>
     </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" s="4"/>
       <c r="B1428" s="3"/>
     </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" s="4"/>
       <c r="B1429" s="3"/>
     </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" s="4"/>
       <c r="B1430" s="3"/>
     </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" s="4"/>
       <c r="B1431" s="3"/>
     </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" s="4"/>
       <c r="B1432" s="3"/>
     </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" s="4"/>
       <c r="B1433" s="3"/>
     </row>
-    <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" s="4"/>
       <c r="B1434" s="3"/>
     </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" s="4"/>
       <c r="B1435" s="3"/>
     </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" s="4"/>
       <c r="B1436" s="3"/>
     </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" s="4"/>
       <c r="B1437" s="3"/>
     </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" s="4"/>
       <c r="B1438" s="3"/>
     </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" s="4"/>
       <c r="B1439" s="3"/>
     </row>
-    <row r="1440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" s="4"/>
       <c r="B1440" s="3"/>
     </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" s="4"/>
       <c r="B1441" s="3"/>
     </row>
-    <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" s="4"/>
       <c r="B1442" s="3"/>
     </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" s="4"/>
       <c r="B1443" s="3"/>
     </row>
-    <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" s="4"/>
       <c r="B1444" s="3"/>
     </row>
-    <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" s="4"/>
       <c r="B1445" s="3"/>
     </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="4"/>
       <c r="B1446" s="3"/>
     </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" s="4"/>
       <c r="B1447" s="3"/>
     </row>
-    <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" s="4"/>
       <c r="B1448" s="3"/>
     </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" s="4"/>
       <c r="B1449" s="3"/>
     </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" s="4"/>
       <c r="B1450" s="3"/>
     </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" s="4"/>
       <c r="B1451" s="3"/>
     </row>
-    <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" s="4"/>
       <c r="B1452" s="3"/>
     </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" s="4"/>
       <c r="B1453" s="3"/>
     </row>
-    <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" s="4"/>
       <c r="B1454" s="3"/>
     </row>
-    <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" s="4"/>
       <c r="B1455" s="3"/>
     </row>
-    <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" s="4"/>
       <c r="B1456" s="3"/>
     </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" s="4"/>
       <c r="B1457" s="3"/>
     </row>
-    <row r="1458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" s="4"/>
       <c r="B1458" s="3"/>
     </row>
-    <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" s="4"/>
       <c r="B1459" s="3"/>
     </row>
-    <row r="1460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" s="4"/>
       <c r="B1460" s="3"/>
     </row>
-    <row r="1461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" s="4"/>
       <c r="B1461" s="3"/>
     </row>
-    <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" s="4"/>
       <c r="B1462" s="3"/>
     </row>
-    <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" s="4"/>
       <c r="B1463" s="3"/>
     </row>
-    <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" s="4"/>
       <c r="B1464" s="3"/>
     </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" s="4"/>
       <c r="B1465" s="3"/>
     </row>
-    <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" s="4"/>
       <c r="B1466" s="3"/>
     </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" s="4"/>
       <c r="B1467" s="3"/>
     </row>
-    <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" s="4"/>
       <c r="B1468" s="3"/>
     </row>
-    <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" s="4"/>
       <c r="B1469" s="3"/>
     </row>
-    <row r="1470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" s="4"/>
       <c r="B1470" s="3"/>
     </row>
-    <row r="1471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" s="4"/>
       <c r="B1471" s="3"/>
     </row>
@@ -7027,21 +7026,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f ca="1">EOMONTH(TODAY(),-1)</f>
         <v>45443</v>
@@ -7093,7 +7092,7 @@
         <v>60375.09</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A67" ca="1" si="0">EOMONTH(A3,-1)</f>
         <v>45412</v>
@@ -7111,7 +7110,7 @@
         <v>58879.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45382</v>
@@ -7129,7 +7128,7 @@
         <v>54798.12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45351</v>
@@ -7147,7 +7146,7 @@
         <v>54450.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45322</v>
@@ -7165,7 +7164,7 @@
         <v>51065.66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45291</v>
@@ -7183,7 +7182,7 @@
         <v>56217.75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45260</v>
@@ -7201,7 +7200,7 @@
         <v>56125.63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45230</v>
@@ -7219,7 +7218,7 @@
         <v>56213.94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45199</v>
@@ -7237,7 +7236,7 @@
         <v>58498.39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45169</v>
@@ -7255,7 +7254,7 @@
         <v>60046.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45138</v>
@@ -7273,7 +7272,7 @@
         <v>65431.33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45107</v>
@@ -7291,7 +7290,7 @@
         <v>61059.48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45077</v>
@@ -7309,7 +7308,7 @@
         <v>58421.83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45046</v>
@@ -7327,7 +7326,7 @@
         <v>63401.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45016</v>
@@ -7345,7 +7344,7 @@
         <v>64984.56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44985</v>
@@ -7363,7 +7362,7 @@
         <v>62798.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44957</v>
@@ -7381,7 +7380,7 @@
         <v>69324.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44926</v>
@@ -7399,7 +7398,7 @@
         <v>62782.44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44895</v>
@@ -7417,7 +7416,7 @@
         <v>59012.65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44865</v>
@@ -7435,7 +7434,7 @@
         <v>46543.7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44834</v>
@@ -7453,7 +7452,7 @@
         <v>54576.94</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44804</v>
@@ -7471,7 +7470,7 @@
         <v>62837.98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44773</v>
@@ -7489,7 +7488,7 @@
         <v>63329.75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44742</v>
@@ -7507,7 +7506,7 @@
         <v>68333.39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44712</v>
@@ -7525,7 +7524,7 @@
         <v>66336.91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44681</v>
@@ -7543,7 +7542,7 @@
         <v>64940.51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44651</v>
@@ -7561,7 +7560,7 @@
         <v>67727.53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44620</v>
@@ -7579,7 +7578,7 @@
         <v>69689.14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44592</v>
@@ -7597,7 +7596,7 @@
         <v>73031.19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44561</v>
@@ -7615,7 +7614,7 @@
         <v>71787.97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44530</v>
@@ -7633,7 +7632,7 @@
         <v>72012.42</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44500</v>
@@ -7651,7 +7650,7 @@
         <v>77782.63</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44469</v>
@@ -7669,7 +7668,7 @@
         <v>75320.789999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44439</v>
@@ -7687,7 +7686,7 @@
         <v>79041.69</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44408</v>
@@ -7705,7 +7704,7 @@
         <v>79081.679999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44377</v>
@@ -7723,7 +7722,7 @@
         <v>87460.62</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -7741,7 +7740,7 @@
         <v>88028.15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44316</v>
@@ -7759,7 +7758,7 @@
         <v>86232.42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44286</v>
@@ -7777,7 +7776,7 @@
         <v>85122.19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44255</v>
@@ -7795,7 +7794,7 @@
         <v>86649.54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44227</v>
@@ -7813,7 +7812,7 @@
         <v>84567.03</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44196</v>
@@ -7831,7 +7830,7 @@
         <v>81419.88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44165</v>
@@ -7849,7 +7848,7 @@
         <v>78747.86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44135</v>
@@ -7867,7 +7866,7 @@
         <v>71997.75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44104</v>
@@ -7885,7 +7884,7 @@
         <v>70041.509999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44074</v>
@@ -7903,7 +7902,7 @@
         <v>74864.41</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44043</v>
@@ -7921,7 +7920,7 @@
         <v>73008.850000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>44012</v>
@@ -7939,7 +7938,7 @@
         <v>71924.289999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43982</v>
@@ -7957,7 +7956,7 @@
         <v>66970.39</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43951</v>
@@ -7975,7 +7974,7 @@
         <v>71476.460000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43921</v>
@@ -7993,7 +7992,7 @@
         <v>68684.88</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43890</v>
@@ -8011,7 +8010,7 @@
         <v>75922.570000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43861</v>
@@ -8029,7 +8028,7 @@
         <v>76215.48</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43830</v>
@@ -8047,7 +8046,7 @@
         <v>81652.63</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43799</v>
@@ -8065,7 +8064,7 @@
         <v>76299.41</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43769</v>
@@ -8083,7 +8082,7 @@
         <v>77838.97</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43738</v>
@@ -8101,7 +8100,7 @@
         <v>75357.61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43708</v>
@@ -8119,7 +8118,7 @@
         <v>73973.91</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43677</v>
@@ -8137,7 +8136,7 @@
         <v>79585.52</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43646</v>
@@ -8155,7 +8154,7 @@
         <v>81449.09</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43616</v>
@@ -8173,7 +8172,7 @@
         <v>76334.16</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43585</v>
@@ -8191,7 +8190,7 @@
         <v>83342.63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43555</v>
@@ -8209,7 +8208,7 @@
         <v>81507.070000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43524</v>
@@ -8227,7 +8226,7 @@
         <v>80229.490000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43496</v>
@@ -8245,7 +8244,7 @@
         <v>78112.929999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <f t="shared" ref="A68:A131" ca="1" si="1">EOMONTH(A67,-1)</f>
         <v>43465</v>
@@ -8263,7 +8262,7 @@
         <v>72232.320000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43434</v>
@@ -8281,7 +8280,7 @@
         <v>74068.820000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43404</v>
@@ -8299,7 +8298,7 @@
         <v>69722.850000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43373</v>
@@ -8317,7 +8316,7 @@
         <v>77445.8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43343</v>
@@ -8335,7 +8334,7 @@
         <v>77409.73</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43312</v>
@@ -8353,7 +8352,7 @@
         <v>79067.02</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43281</v>
@@ -8371,7 +8370,7 @@
         <v>79425.710000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43251</v>
@@ -8389,7 +8388,7 @@
         <v>83188.149999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43220</v>
@@ -8407,7 +8406,7 @@
         <v>83552.600000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43190</v>
@@ -8425,7 +8424,7 @@
         <v>81486.720000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43159</v>
@@ -8443,7 +8442,7 @@
         <v>83430.36</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43131</v>
@@ -8461,7 +8460,7 @@
         <v>88755.56</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43100</v>
@@ -8479,7 +8478,7 @@
         <v>80745.25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43069</v>
@@ -8497,7 +8496,7 @@
         <v>78731.73</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43039</v>
@@ -8515,7 +8514,7 @@
         <v>76143.61</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>43008</v>
@@ -8533,7 +8532,7 @@
         <v>74184.44</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42978</v>
@@ -8551,7 +8550,7 @@
         <v>75061.89</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42947</v>
@@ -8569,7 +8568,7 @@
         <v>72835.05</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42916</v>
@@ -8587,7 +8586,7 @@
         <v>68302.27</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42886</v>
@@ -8605,7 +8604,7 @@
         <v>67338.34</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42855</v>
@@ -8623,7 +8622,7 @@
         <v>64283.56</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42825</v>
@@ -8641,7 +8640,7 @@
         <v>62945.7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42794</v>
@@ -8659,7 +8658,7 @@
         <v>61900.36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42766</v>
@@ -8677,7 +8676,7 @@
         <v>60682.07</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42735</v>
@@ -8695,7 +8694,7 @@
         <v>57148.76</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42704</v>
@@ -8713,7 +8712,7 @@
         <v>59190.19</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42674</v>
@@ -8731,7 +8730,7 @@
         <v>59481.34</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42643</v>
@@ -8749,7 +8748,7 @@
         <v>60332.62</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42613</v>
@@ -8767,7 +8766,7 @@
         <v>59253.3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42582</v>
@@ -8785,7 +8784,7 @@
         <v>56309.13</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42551</v>
@@ -8803,7 +8802,7 @@
         <v>53454.93</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42521</v>
@@ -8821,7 +8820,7 @@
         <v>52693.77</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42490</v>
@@ -8839,7 +8838,7 @@
         <v>52958.6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42460</v>
@@ -8857,7 +8856,7 @@
         <v>52197.66</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42429</v>
@@ -8875,7 +8874,7 @@
         <v>47805.67</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42400</v>
@@ -8893,7 +8892,7 @@
         <v>49215.23</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42369</v>
@@ -8911,7 +8910,7 @@
         <v>54794.31</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42338</v>
@@ -8929,7 +8928,7 @@
         <v>54991.63</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42308</v>
@@ -8947,7 +8946,7 @@
         <v>56531.86</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42277</v>
@@ -8965,7 +8964,7 @@
         <v>51977.23</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42247</v>
@@ -8983,7 +8982,7 @@
         <v>53671.56</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42216</v>
@@ -9001,7 +9000,7 @@
         <v>60868.42</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42185</v>
@@ -9019,7 +9018,7 @@
         <v>64818.92</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42155</v>
@@ -9037,7 +9036,7 @@
         <v>66835.59</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42124</v>
@@ -9055,7 +9054,7 @@
         <v>68317.119999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42094</v>
@@ -9073,7 +9072,7 @@
         <v>60440.43</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42063</v>
@@ -9091,7 +9090,7 @@
         <v>59990.35</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42035</v>
@@ -9109,7 +9108,7 @@
         <v>59206.09</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>42004</v>
@@ -9127,7 +9126,7 @@
         <v>57026.93</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41973</v>
@@ -9145,7 +9144,7 @@
         <v>57943.03</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41943</v>
@@ -9163,7 +9162,7 @@
         <v>57914.76</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41912</v>
@@ -9181,7 +9180,7 @@
         <v>55253.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41882</v>
@@ -9199,7 +9198,7 @@
         <v>59366.55</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41851</v>
@@ -9217,7 +9216,7 @@
         <v>59255.91</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41820</v>
@@ -9235,7 +9234,7 @@
         <v>55140.59</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41790</v>
@@ -9253,7 +9252,7 @@
         <v>54420.73</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41759</v>
@@ -9271,7 +9270,7 @@
         <v>51610.78</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41729</v>
@@ -9289,7 +9288,7 @@
         <v>51602.44</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41698</v>
@@ -9307,7 +9306,7 @@
         <v>53005</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41670</v>
@@ -9325,7 +9324,7 @@
         <v>51115.26</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41639</v>
@@ -9343,7 +9342,7 @@
         <v>54063.519999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41608</v>
@@ -9361,7 +9360,7 @@
         <v>55389.79</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41578</v>
@@ -9379,7 +9378,7 @@
         <v>53789.88</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>41547</v>
@@ -9397,7 +9396,7 @@
         <v>52900.89</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <f t="shared" ref="A132:A195" ca="1" si="2">EOMONTH(A131,-1)</f>
         <v>41517</v>
@@ -9415,7 +9414,7 @@
         <v>50056.66</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41486</v>
@@ -9433,7 +9432,7 @@
         <v>50275</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41455</v>
@@ -9451,7 +9450,7 @@
         <v>47786.3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41425</v>
@@ -9469,7 +9468,7 @@
         <v>50692.72</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41394</v>
@@ -9487,7 +9486,7 @@
         <v>51139.83</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41364</v>
@@ -9505,7 +9504,7 @@
         <v>50122.54</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41333</v>
@@ -9523,7 +9522,7 @@
         <v>51564.74</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41305</v>
@@ -9541,7 +9540,7 @@
         <v>53141.55</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41274</v>
@@ -9559,7 +9558,7 @@
         <v>50739.47</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41243</v>
@@ -9577,7 +9576,7 @@
         <v>49327.38</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41213</v>
@@ -9595,7 +9594,7 @@
         <v>48416.68</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41182</v>
@@ -9613,7 +9612,7 @@
         <v>46552.15</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41152</v>
@@ -9631,7 +9630,7 @@
         <v>43310.29</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41121</v>
@@ -9649,7 +9648,7 @@
         <v>43884.58</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41090</v>
@@ -9667,7 +9666,7 @@
         <v>43092.42</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41060</v>
@@ -9685,7 +9684,7 @@
         <v>40841.17</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>41029</v>
@@ -9703,7 +9702,7 @@
         <v>45743.49</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40999</v>
@@ -9721,7 +9720,7 @@
         <v>44540.02</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40968</v>
@@ -9739,7 +9738,7 @@
         <v>46818.34</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40939</v>
@@ -9757,7 +9756,7 @@
         <v>44033.45</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40908</v>
@@ -9775,7 +9774,7 @@
         <v>39809.230000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40877</v>
@@ -9793,7 +9792,7 @@
         <v>38817.58</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40847</v>
@@ -9811,7 +9810,7 @@
         <v>42768.92</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40816</v>
@@ -9829,7 +9828,7 @@
         <v>37866.629999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40786</v>
@@ -9847,7 +9846,7 @@
         <v>43943.05</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40755</v>
@@ -9865,7 +9864,7 @@
         <v>47885.19</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40724</v>
@@ -9883,7 +9882,7 @@
         <v>47794.04</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40694</v>
@@ -9901,7 +9900,7 @@
         <v>50185.58</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40663</v>
@@ -9919,7 +9918,7 @@
         <v>49854.720000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40633</v>
@@ -9937,7 +9936,7 @@
         <v>49365.53</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40602</v>
@@ -9955,7 +9954,7 @@
         <v>48821.97</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40574</v>
@@ -9973,7 +9972,7 @@
         <v>49047.78</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40543</v>
@@ -9991,7 +9990,7 @@
         <v>48186.19</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40512</v>
@@ -10009,7 +10008,7 @@
         <v>48121.22</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40482</v>
@@ -10027,7 +10026,7 @@
         <v>48214.37</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40451</v>
@@ -10045,7 +10044,7 @@
         <v>46654.92</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40421</v>
@@ -10063,7 +10062,7 @@
         <v>42636.51</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40390</v>
@@ -10081,7 +10080,7 @@
         <v>43561.89</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40359</v>
@@ -10099,7 +10098,7 @@
         <v>41695.879999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40329</v>
@@ -10117,7 +10116,7 @@
         <v>40801.050000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40298</v>
@@ -10135,7 +10134,7 @@
         <v>43049.46</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40268</v>
@@ -10153,7 +10152,7 @@
         <v>43205.99</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40237</v>
@@ -10171,7 +10170,7 @@
         <v>41820.730000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40209</v>
@@ -10189,7 +10188,7 @@
         <v>40830.269999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40178</v>
@@ -10207,7 +10206,7 @@
         <v>44382.29</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40147</v>
@@ -10225,7 +10224,7 @@
         <v>44271.56</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40117</v>
@@ -10243,7 +10242,7 @@
         <v>44038.69</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40086</v>
@@ -10261,7 +10260,7 @@
         <v>42406.6</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40056</v>
@@ -10279,7 +10278,7 @@
         <v>39726.730000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>40025</v>
@@ -10297,7 +10296,7 @@
         <v>41360.269999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39994</v>
@@ -10315,7 +10314,7 @@
         <v>36948.29</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39964</v>
@@ -10333,7 +10332,7 @@
         <v>36370.36</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39933</v>
@@ -10351,7 +10350,7 @@
         <v>30730.6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39903</v>
@@ -10369,7 +10368,7 @@
         <v>26835.01</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39872</v>
@@ -10387,7 +10386,7 @@
         <v>25232.15</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39844</v>
@@ -10405,7 +10404,7 @@
         <v>26148.02</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39813</v>
@@ -10423,7 +10422,7 @@
         <v>28332.43</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39782</v>
@@ -10441,7 +10440,7 @@
         <v>27341.37</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39752</v>
@@ -10459,7 +10458,7 @@
         <v>27295.82</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39721</v>
@@ -10477,7 +10476,7 @@
         <v>35185.42</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39691</v>
@@ -10495,7 +10494,7 @@
         <v>41289.81</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39660</v>
@@ -10513,7 +10512,7 @@
         <v>44021.38</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39629</v>
@@ -10531,7 +10530,7 @@
         <v>42801.16</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>39599</v>
@@ -10549,7 +10548,7 @@
         <v>47324.9</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <f t="shared" ref="A196:A209" ca="1" si="3">EOMONTH(A195,-1)</f>
         <v>39568</v>
@@ -10567,7 +10566,7 @@
         <v>49335.4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39538</v>
@@ -10585,7 +10584,7 @@
         <v>43665.64</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39507</v>
@@ -10603,7 +10602,7 @@
         <v>46245.41</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39478</v>
@@ -10621,7 +10620,7 @@
         <v>44577.67</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39447</v>
@@ -10639,7 +10638,7 @@
         <v>52857.97</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39416</v>
@@ -10657,7 +10656,7 @@
         <v>54437.23</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39386</v>
@@ -10675,7 +10674,7 @@
         <v>59417.29</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39355</v>
@@ -10693,7 +10692,7 @@
         <v>51412.84</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39325</v>
@@ -10711,7 +10710,7 @@
         <v>45194.41</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39294</v>
@@ -10729,7 +10728,7 @@
         <v>43588.9</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39263</v>
@@ -10747,7 +10746,7 @@
         <v>40917.25</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39233</v>
@@ -10765,7 +10764,7 @@
         <v>38744.29</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39202</v>
@@ -10783,7 +10782,7 @@
         <v>37790.61</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>39172</v>

--- a/data/SAAData.xlsx
+++ b/data/SAAData.xlsx
@@ -7030,7 +7030,7 @@
   <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <f ca="1">EOMONTH(TODAY(),-1)</f>
+        <f ca="1">EOMONTH(TODAY(),-2)</f>
         <v>45443</v>
       </c>
       <c r="B3">
@@ -10803,5 +10803,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>